--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kmurphy/wit/archive/2025-26/modules/Discrete_Mathematics/exams/study_dashboard/Discrete_Mathematics_Exam_Viewer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E170EEB8-0B59-DA4A-AECF-119180B21A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D14A10-99C3-5B4E-B32F-031224B3D11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="11320" xr2:uid="{422AB7C4-DC60-EF4B-B76F-C5BB3A29986B}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="147">
   <si>
     <t>paper</t>
   </si>
@@ -199,9 +199,6 @@
     <t>Identify properties of a relation.</t>
   </si>
   <si>
-    <t>Generate truth table. Classify a proposition.</t>
-  </si>
-  <si>
     <t>Evaluate a sum-product expression (given in python).</t>
   </si>
   <si>
@@ -253,12 +250,6 @@
     <t>2023/24 Final</t>
   </si>
   <si>
-    <t>Convert logic circuit to proposition. Construct truth table. Classify a proposition.</t>
-  </si>
-  <si>
-    <t>sets / python</t>
-  </si>
-  <si>
     <t>Identiy set operation implemented in python.</t>
   </si>
   <si>
@@ -283,9 +274,6 @@
     <t>Count n-bit strings with conditions.</t>
   </si>
   <si>
-    <t>Compute terms of a arithmetic progression.</t>
-  </si>
-  <si>
     <t>logic / proposition notation</t>
   </si>
   <si>
@@ -307,9 +295,6 @@
     <t>logic, quantifiers, for all, there exists, python</t>
   </si>
   <si>
-    <t>Construct truth table. Classify a proposition.</t>
-  </si>
-  <si>
     <t>relations / properties / python</t>
   </si>
   <si>
@@ -379,9 +364,6 @@
     <t>collections / sets / operations</t>
   </si>
   <si>
-    <t>sets, subset, set builder notation</t>
-  </si>
-  <si>
     <t>logic / proof by cases</t>
   </si>
   <si>
@@ -392,6 +374,93 @@
   </si>
   <si>
     <t>sets, set difference, symetric difference, membership table</t>
+  </si>
+  <si>
+    <t>2024/25 Repeat</t>
+  </si>
+  <si>
+    <t>Evaluate a sum-product expression.</t>
+  </si>
+  <si>
+    <t>functions / evaluation / python</t>
+  </si>
+  <si>
+    <t>Verify graph is simple. Compute girth of a graph.</t>
+  </si>
+  <si>
+    <t>graph, simple, girth, cycle</t>
+  </si>
+  <si>
+    <t>collections / sets / notation and operations / python</t>
+  </si>
+  <si>
+    <t>collections / sets / python</t>
+  </si>
+  <si>
+    <t>Construct sets with given properties. Read Python code.</t>
+  </si>
+  <si>
+    <t>sets, union, intersection, set difference, python, Venn diagram</t>
+  </si>
+  <si>
+    <t>logic / equivalent propositions</t>
+  </si>
+  <si>
+    <t>logic, proposition, equivalent</t>
+  </si>
+  <si>
+    <t>truth table, tautology</t>
+  </si>
+  <si>
+    <t>reflexive, symmetric, transtitive, equivalence relation, antisymmetric, irreflexive, asymmetric</t>
+  </si>
+  <si>
+    <t>collections, sets, properties, python</t>
+  </si>
+  <si>
+    <t>Construct a truth table. Classify a logical proposition.</t>
+  </si>
+  <si>
+    <t>Convert logic circuit to proposition. Construct truth table. Classify a logical proposition.</t>
+  </si>
+  <si>
+    <t>Construct truth table. Classify a logical proposition.</t>
+  </si>
+  <si>
+    <t>sets, subset, set Constructer notation</t>
+  </si>
+  <si>
+    <t>2023/24 Repeat</t>
+  </si>
+  <si>
+    <t>Compute terms of an arithmetic progression.</t>
+  </si>
+  <si>
+    <t>functions / python implementation</t>
+  </si>
+  <si>
+    <t>Read python.</t>
+  </si>
+  <si>
+    <t>logic, proposition, satisfiable</t>
+  </si>
+  <si>
+    <t>collections, sum-product notation</t>
+  </si>
+  <si>
+    <t>Q2 (d)</t>
+  </si>
+  <si>
+    <t>logic, proposition, notation</t>
+  </si>
+  <si>
+    <t>Construct truth table. Verify if two propositions are logically equivalent.</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>Verify logical propositions are logically equivalent.  Construct a truth table. Classify a logical proposition.</t>
   </si>
 </sst>
 </file>
@@ -1252,16 +1321,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C95249E-C714-E54A-906E-011FA13AE7C6}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="214" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A36:A51"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="214" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="4.33203125" customWidth="1"/>
     <col min="4" max="5" width="6" customWidth="1"/>
@@ -1291,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -1326,7 +1395,7 @@
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
         <v>57</v>
@@ -1390,10 +1459,10 @@
         <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -1425,7 +1494,7 @@
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
@@ -1454,7 +1523,7 @@
         <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
         <v>57</v>
@@ -1489,7 +1558,7 @@
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
         <v>21</v>
@@ -1521,10 +1590,10 @@
         <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1553,7 +1622,7 @@
         <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
@@ -1585,10 +1654,10 @@
         <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -1617,7 +1686,7 @@
         <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H11" t="s">
         <v>30</v>
@@ -1649,10 +1718,10 @@
         <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1678,13 +1747,13 @@
         <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1713,7 +1782,7 @@
         <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -1742,10 +1811,10 @@
         <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H15" t="s">
         <v>38</v>
@@ -1774,10 +1843,10 @@
         <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H16" t="s">
         <v>40</v>
@@ -1809,7 +1878,7 @@
         <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H17" t="s">
         <v>43</v>
@@ -1821,7 +1890,7 @@
         <v>2</v>
       </c>
       <c r="K17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1844,7 +1913,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H18" t="s">
         <v>46</v>
@@ -1873,10 +1942,10 @@
         <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H19" t="s">
         <v>49</v>
@@ -1908,7 +1977,7 @@
         <v>51</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" t="s">
         <v>52</v>
@@ -1920,12 +1989,12 @@
         <v>8</v>
       </c>
       <c r="K20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -1940,10 +2009,10 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="H21" t="s">
         <v>38</v>
@@ -1957,7 +2026,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -1972,13 +2041,13 @@
         <v>64</v>
       </c>
       <c r="F22" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" t="s">
         <v>78</v>
-      </c>
-      <c r="G22" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" t="s">
-        <v>81</v>
       </c>
       <c r="I22">
         <v>4</v>
@@ -1989,7 +2058,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -2007,7 +2076,7 @@
         <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s">
         <v>36</v>
@@ -2021,7 +2090,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -2036,13 +2105,13 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2053,7 +2122,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -2068,13 +2137,13 @@
         <v>85</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I25">
         <v>3</v>
@@ -2085,7 +2154,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -2103,7 +2172,7 @@
         <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="H26" t="s">
         <v>17</v>
@@ -2117,7 +2186,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -2135,7 +2204,7 @@
         <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" t="s">
         <v>30</v>
@@ -2149,7 +2218,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -2167,10 +2236,10 @@
         <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="H28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -2181,7 +2250,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
         <v>33</v>
@@ -2196,13 +2265,13 @@
         <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G29" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H29" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I29">
         <v>4</v>
@@ -2213,7 +2282,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
@@ -2228,13 +2297,13 @@
         <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -2245,7 +2314,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
@@ -2260,13 +2329,13 @@
         <v>60</v>
       </c>
       <c r="F31" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G31" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H31" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -2277,7 +2346,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
         <v>41</v>
@@ -2292,10 +2361,10 @@
         <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G32" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s">
         <v>14</v>
@@ -2307,9 +2376,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
         <v>44</v>
@@ -2327,10 +2396,10 @@
         <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H33" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I33">
         <v>3</v>
@@ -2339,9 +2408,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
         <v>47</v>
@@ -2359,7 +2428,7 @@
         <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H34" t="s">
         <v>49</v>
@@ -2371,9 +2440,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -2388,13 +2457,13 @@
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G35" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H35" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -2403,9 +2472,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
@@ -2420,10 +2489,10 @@
         <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G36" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="H36" t="s">
         <v>17</v>
@@ -2435,9 +2504,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
@@ -2452,13 +2521,13 @@
         <v>57</v>
       </c>
       <c r="F37" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G37" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H37" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -2466,10 +2535,13 @@
       <c r="J37">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
@@ -2484,10 +2556,10 @@
         <v>75</v>
       </c>
       <c r="F38" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H38" t="s">
         <v>40</v>
@@ -2499,9 +2571,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
         <v>18</v>
@@ -2516,10 +2588,10 @@
         <v>40</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G39" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="H39" t="s">
         <v>38</v>
@@ -2531,9 +2603,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B40" t="s">
         <v>19</v>
@@ -2548,13 +2620,13 @@
         <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s">
+        <v>107</v>
+      </c>
+      <c r="H40" t="s">
         <v>112</v>
-      </c>
-      <c r="H40" t="s">
-        <v>117</v>
       </c>
       <c r="I40">
         <v>3</v>
@@ -2563,9 +2635,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
@@ -2580,13 +2652,13 @@
         <v>88</v>
       </c>
       <c r="F41" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G41" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H41" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I41">
         <v>4</v>
@@ -2595,9 +2667,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B42" t="s">
         <v>24</v>
@@ -2612,13 +2684,13 @@
         <v>28</v>
       </c>
       <c r="F42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H42" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I42">
         <v>2</v>
@@ -2627,9 +2699,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B43" t="s">
         <v>27</v>
@@ -2647,10 +2719,10 @@
         <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H43" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I43">
         <v>2</v>
@@ -2659,9 +2731,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s">
         <v>28</v>
@@ -2679,7 +2751,7 @@
         <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H44" t="s">
         <v>52</v>
@@ -2690,10 +2762,13 @@
       <c r="J44">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B45" t="s">
         <v>33</v>
@@ -2711,7 +2786,7 @@
         <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H45" t="s">
         <v>43</v>
@@ -2722,10 +2797,13 @@
       <c r="J45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B46" t="s">
         <v>34</v>
@@ -2740,10 +2818,10 @@
         <v>34</v>
       </c>
       <c r="F46" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H46" t="s">
         <v>40</v>
@@ -2755,9 +2833,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B47" t="s">
         <v>37</v>
@@ -2775,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s">
         <v>36</v>
@@ -2787,9 +2865,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
         <v>39</v>
@@ -2804,13 +2882,13 @@
         <v>72</v>
       </c>
       <c r="F48" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H48" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="I48">
         <v>4</v>
@@ -2821,7 +2899,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
         <v>41</v>
@@ -2836,10 +2914,10 @@
         <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G49" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H49" t="s">
         <v>14</v>
@@ -2853,7 +2931,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
         <v>44</v>
@@ -2868,13 +2946,13 @@
         <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G50" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H50" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I50">
         <v>4</v>
@@ -2883,12 +2961,12 @@
         <v>7</v>
       </c>
       <c r="K50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B51" t="s">
         <v>47</v>
@@ -2903,19 +2981,1008 @@
         <v>47</v>
       </c>
       <c r="F51" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H51" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51">
         <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>14</v>
+      </c>
+      <c r="E52">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>72</v>
+      </c>
+      <c r="G52" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" t="s">
+        <v>9</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>28</v>
+      </c>
+      <c r="E53">
+        <v>38</v>
+      </c>
+      <c r="F53" t="s">
+        <v>84</v>
+      </c>
+      <c r="G53" t="s">
+        <v>85</v>
+      </c>
+      <c r="H53" t="s">
+        <v>86</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>40</v>
+      </c>
+      <c r="E54">
+        <v>50</v>
+      </c>
+      <c r="F54" t="s">
+        <v>94</v>
+      </c>
+      <c r="G54" t="s">
+        <v>119</v>
+      </c>
+      <c r="H54" t="s">
+        <v>96</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>53</v>
+      </c>
+      <c r="E55">
+        <v>67</v>
+      </c>
+      <c r="F55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" t="s">
+        <v>80</v>
+      </c>
+      <c r="H55" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+      <c r="J55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>12</v>
+      </c>
+      <c r="E56">
+        <v>45</v>
+      </c>
+      <c r="F56" t="s">
+        <v>120</v>
+      </c>
+      <c r="G56" t="s">
+        <v>64</v>
+      </c>
+      <c r="H56" t="s">
+        <v>49</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>45</v>
+      </c>
+      <c r="E57">
+        <v>65</v>
+      </c>
+      <c r="F57" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" t="s">
+        <v>137</v>
+      </c>
+      <c r="H57" t="s">
+        <v>68</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>65</v>
+      </c>
+      <c r="E58">
+        <v>92</v>
+      </c>
+      <c r="F58" t="s">
+        <v>51</v>
+      </c>
+      <c r="G58" t="s">
+        <v>121</v>
+      </c>
+      <c r="H58" t="s">
+        <v>122</v>
+      </c>
+      <c r="I58">
+        <v>3</v>
+      </c>
+      <c r="J58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>14</v>
+      </c>
+      <c r="E59">
+        <v>47</v>
+      </c>
+      <c r="F59" t="s">
+        <v>123</v>
+      </c>
+      <c r="G59" t="s">
+        <v>125</v>
+      </c>
+      <c r="H59" t="s">
+        <v>126</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>50</v>
+      </c>
+      <c r="E60">
+        <v>67</v>
+      </c>
+      <c r="F60" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60" t="s">
+        <v>79</v>
+      </c>
+      <c r="H60" t="s">
+        <v>36</v>
+      </c>
+      <c r="I60">
+        <v>4</v>
+      </c>
+      <c r="J60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>69</v>
+      </c>
+      <c r="E61">
+        <v>75</v>
+      </c>
+      <c r="F61" t="s">
+        <v>127</v>
+      </c>
+      <c r="G61" t="s">
+        <v>146</v>
+      </c>
+      <c r="H61" t="s">
+        <v>128</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>14</v>
+      </c>
+      <c r="E62">
+        <v>48</v>
+      </c>
+      <c r="F62" t="s">
+        <v>72</v>
+      </c>
+      <c r="G62" t="s">
+        <v>57</v>
+      </c>
+      <c r="H62" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
+      </c>
+      <c r="J62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>50</v>
+      </c>
+      <c r="E63">
+        <v>58</v>
+      </c>
+      <c r="F63" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" t="s">
+        <v>81</v>
+      </c>
+      <c r="H63" t="s">
+        <v>67</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>60</v>
+      </c>
+      <c r="E64">
+        <v>78</v>
+      </c>
+      <c r="F64" t="s">
+        <v>71</v>
+      </c>
+      <c r="G64" t="s">
+        <v>83</v>
+      </c>
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64">
+        <v>3</v>
+      </c>
+      <c r="J64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>80</v>
+      </c>
+      <c r="E65">
+        <v>90</v>
+      </c>
+      <c r="F65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>132</v>
+      </c>
+      <c r="H65" t="s">
+        <v>129</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>14</v>
+      </c>
+      <c r="E66">
+        <v>42</v>
+      </c>
+      <c r="F66" t="s">
+        <v>91</v>
+      </c>
+      <c r="G66" t="s">
+        <v>97</v>
+      </c>
+      <c r="H66" t="s">
+        <v>130</v>
+      </c>
+      <c r="I66">
+        <v>3</v>
+      </c>
+      <c r="J66">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>44</v>
+      </c>
+      <c r="E67">
+        <v>65</v>
+      </c>
+      <c r="F67" t="s">
+        <v>102</v>
+      </c>
+      <c r="G67" t="s">
+        <v>62</v>
+      </c>
+      <c r="H67" t="s">
+        <v>131</v>
+      </c>
+      <c r="I67">
+        <v>3</v>
+      </c>
+      <c r="J67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+      <c r="D68">
+        <v>68</v>
+      </c>
+      <c r="E68">
+        <v>75</v>
+      </c>
+      <c r="F68" t="s">
+        <v>32</v>
+      </c>
+      <c r="G68" t="s">
+        <v>137</v>
+      </c>
+      <c r="H68" t="s">
+        <v>68</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>14</v>
+      </c>
+      <c r="E69">
+        <v>33</v>
+      </c>
+      <c r="F69" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" t="s">
+        <v>137</v>
+      </c>
+      <c r="H69" t="s">
+        <v>68</v>
+      </c>
+      <c r="I69">
+        <v>3</v>
+      </c>
+      <c r="J69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>36</v>
+      </c>
+      <c r="E70">
+        <v>66</v>
+      </c>
+      <c r="F70" t="s">
+        <v>138</v>
+      </c>
+      <c r="G70" t="s">
+        <v>139</v>
+      </c>
+      <c r="H70" t="s">
+        <v>49</v>
+      </c>
+      <c r="I70">
+        <v>4</v>
+      </c>
+      <c r="J70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>69</v>
+      </c>
+      <c r="E71">
+        <v>83</v>
+      </c>
+      <c r="F71" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" t="s">
+        <v>80</v>
+      </c>
+      <c r="H71" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71">
+        <v>3</v>
+      </c>
+      <c r="J71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>136</v>
+      </c>
+      <c r="B72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>14</v>
+      </c>
+      <c r="E72">
+        <v>47</v>
+      </c>
+      <c r="F72" t="s">
+        <v>120</v>
+      </c>
+      <c r="G72" t="s">
+        <v>64</v>
+      </c>
+      <c r="H72" t="s">
+        <v>49</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>47</v>
+      </c>
+      <c r="E73">
+        <v>59</v>
+      </c>
+      <c r="F73" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>132</v>
+      </c>
+      <c r="H73" t="s">
+        <v>140</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>63</v>
+      </c>
+      <c r="E74">
+        <v>72</v>
+      </c>
+      <c r="F74" t="s">
+        <v>94</v>
+      </c>
+      <c r="G74" t="s">
+        <v>119</v>
+      </c>
+      <c r="H74" t="s">
+        <v>141</v>
+      </c>
+      <c r="J74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>76</v>
+      </c>
+      <c r="E75">
+        <v>86</v>
+      </c>
+      <c r="F75" t="s">
+        <v>84</v>
+      </c>
+      <c r="G75" t="s">
+        <v>85</v>
+      </c>
+      <c r="H75" t="s">
+        <v>143</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>14</v>
+      </c>
+      <c r="E76">
+        <v>48</v>
+      </c>
+      <c r="F76" t="s">
+        <v>123</v>
+      </c>
+      <c r="G76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H76" t="s">
+        <v>131</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>51</v>
+      </c>
+      <c r="E77">
+        <v>68</v>
+      </c>
+      <c r="F77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G77" t="s">
+        <v>79</v>
+      </c>
+      <c r="H77" t="s">
+        <v>36</v>
+      </c>
+      <c r="I77">
+        <v>3</v>
+      </c>
+      <c r="J77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>136</v>
+      </c>
+      <c r="B78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>70</v>
+      </c>
+      <c r="E78">
+        <v>78</v>
+      </c>
+      <c r="F78" t="s">
+        <v>127</v>
+      </c>
+      <c r="G78" t="s">
+        <v>144</v>
+      </c>
+      <c r="H78" t="s">
+        <v>128</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>136</v>
+      </c>
+      <c r="B79" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>14</v>
+      </c>
+      <c r="E79">
+        <v>42</v>
+      </c>
+      <c r="F79" t="s">
+        <v>91</v>
+      </c>
+      <c r="G79" t="s">
+        <v>97</v>
+      </c>
+      <c r="H79" t="s">
+        <v>130</v>
+      </c>
+      <c r="I79">
+        <v>3</v>
+      </c>
+      <c r="J79">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>136</v>
+      </c>
+      <c r="B80" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>44</v>
+      </c>
+      <c r="E80">
+        <v>62</v>
+      </c>
+      <c r="F80" t="s">
+        <v>71</v>
+      </c>
+      <c r="G80" t="s">
+        <v>83</v>
+      </c>
+      <c r="H80" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80">
+        <v>3</v>
+      </c>
+      <c r="J80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>136</v>
+      </c>
+      <c r="B81" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>10</v>
+      </c>
+      <c r="E81">
+        <v>34</v>
+      </c>
+      <c r="F81" t="s">
+        <v>138</v>
+      </c>
+      <c r="G81" t="s">
+        <v>139</v>
+      </c>
+      <c r="H81" t="s">
+        <v>145</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>136</v>
+      </c>
+      <c r="B82" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+      <c r="D82">
+        <v>33</v>
+      </c>
+      <c r="E82">
+        <v>91</v>
+      </c>
+      <c r="F82" t="s">
+        <v>88</v>
+      </c>
+      <c r="G82" t="s">
+        <v>89</v>
+      </c>
+      <c r="H82" t="s">
+        <v>90</v>
+      </c>
+      <c r="I82">
+        <v>3</v>
+      </c>
+      <c r="J82">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kmurphy/wit/archive/2025-26/modules/Discrete_Mathematics/exams/study_dashboard/Discrete_Mathematics_Exam_Viewer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D14A10-99C3-5B4E-B32F-031224B3D11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0479B04B-EC1A-F747-94F8-B417236D3B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="11320" xr2:uid="{422AB7C4-DC60-EF4B-B76F-C5BB3A29986B}"/>
   </bookViews>
@@ -1323,9 +1323,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C95249E-C714-E54A-906E-011FA13AE7C6}">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="214" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" zoomScale="214" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3725,6 +3725,9 @@
       <c r="H74" t="s">
         <v>141</v>
       </c>
+      <c r="I74">
+        <v>3</v>
+      </c>
       <c r="J74">
         <v>6</v>
       </c>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kmurphy/wit/archive/2025-26/modules/Discrete_Mathematics/exams/study_dashboard/Discrete_Mathematics_Exam_Viewer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0479B04B-EC1A-F747-94F8-B417236D3B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58347C62-2D6A-AD4D-AF30-4BA4641B8487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="11320" xr2:uid="{422AB7C4-DC60-EF4B-B76F-C5BB3A29986B}"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="30240" windowHeight="15100" xr2:uid="{422AB7C4-DC60-EF4B-B76F-C5BB3A29986B}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="151">
   <si>
     <t>paper</t>
   </si>
@@ -461,6 +461,18 @@
   </si>
   <si>
     <t>Verify logical propositions are logically equivalent.  Construct a truth table. Classify a logical proposition.</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>Error in solution - solution given is from an earlier version of this question.</t>
+  </si>
+  <si>
+    <t>Error in solution - the calculation of path through (5,3) is incorrect.</t>
+  </si>
+  <si>
+    <t>Error in solution - the calculation shown for (iii) is from an earlier version of the question.</t>
   </si>
 </sst>
 </file>
@@ -1321,11 +1333,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C95249E-C714-E54A-906E-011FA13AE7C6}">
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="214" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="214" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1340,7 +1352,7 @@
     <col min="9" max="10" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1377,8 +1389,11 @@
       <c r="L1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -1410,7 +1425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1442,7 +1457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1474,7 +1489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1506,7 +1521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1538,7 +1553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -1569,8 +1584,11 @@
       <c r="J7">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -1602,7 +1620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1634,7 +1652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1666,7 +1684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1698,7 +1716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -1730,7 +1748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -1762,7 +1780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -1794,7 +1812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1826,7 +1844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -1858,7 +1876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -1893,7 +1911,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -1925,7 +1943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1957,7 +1975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -1992,7 +2010,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -2024,7 +2042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -2056,7 +2074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -2088,7 +2106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -2120,7 +2138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -2152,7 +2170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -2184,7 +2202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -2216,7 +2234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>75</v>
       </c>
@@ -2248,7 +2266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -2280,7 +2298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -2312,7 +2330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -2343,8 +2361,11 @@
       <c r="J31">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -2376,7 +2397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>75</v>
       </c>
@@ -2408,7 +2429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -2440,7 +2461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -2472,7 +2493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>99</v>
       </c>
@@ -2504,7 +2525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -2539,7 +2560,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>99</v>
       </c>
@@ -2571,7 +2592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>99</v>
       </c>
@@ -2603,7 +2624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -2634,8 +2655,11 @@
       <c r="J40">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M40" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>99</v>
       </c>
@@ -2667,7 +2691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>99</v>
       </c>
@@ -2699,7 +2723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>99</v>
       </c>
@@ -2731,7 +2755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>99</v>
       </c>
@@ -2766,7 +2790,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>99</v>
       </c>
@@ -2801,7 +2825,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -2833,7 +2857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>99</v>
       </c>
@@ -2865,7 +2889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>99</v>
       </c>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kmurphy/wit/archive/2025-26/modules/Discrete_Mathematics/exams/study_dashboard/Discrete_Mathematics_Exam_Viewer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58347C62-2D6A-AD4D-AF30-4BA4641B8487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91558143-3E59-E24F-A5DB-29FC1D5FE13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="30240" windowHeight="15100" xr2:uid="{422AB7C4-DC60-EF4B-B76F-C5BB3A29986B}"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="30240" windowHeight="11320" xr2:uid="{422AB7C4-DC60-EF4B-B76F-C5BB3A29986B}"/>
   </bookViews>
   <sheets>
     <sheet name="questions_2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="152">
   <si>
     <t>paper</t>
   </si>
@@ -473,6 +473,9 @@
   </si>
   <si>
     <t>Error in solution - the calculation shown for (iii) is from an earlier version of the question.</t>
+  </si>
+  <si>
+    <t>Error in solution - solution should be 2/2^8  = 1/2^7, since they all could be wearing a red dress or all wearing a blue dress.</t>
   </si>
 </sst>
 </file>
@@ -1335,9 +1338,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C95249E-C714-E54A-906E-011FA13AE7C6}">
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="214" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="214" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2690,6 +2693,9 @@
       <c r="J41">
         <v>4</v>
       </c>
+      <c r="M41" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
